--- a/Project 4 Apache Common Configuration/Correlation/Correlation5&6.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation/Correlation5&6.xlsx
@@ -52,7 +52,7 @@
     <numFmt numFmtId="165" formatCode="0.0000000"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -88,6 +88,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -192,7 +207,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -226,7 +241,7 @@
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF004586"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
@@ -239,6 +254,340 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Metric 5 &amp; 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>I=ce/(ce+ca)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44E-005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.75E-005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.85E-005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.780876494023904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.783882783882784</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.783882783882784</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.780669144981413</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.779026217228464</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.776515151515152</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.768627450980392</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="80694786"/>
+        <c:axId val="86781932"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="80694786"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Metric 6</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="86781932"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="86781932"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Metric 5</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="80694786"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>423360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>28800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>77040</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19080</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="423360" y="1816920"/>
+        <a:ext cx="5761080" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -247,10 +596,10 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.63"/>
@@ -258,7 +607,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="36.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24.6"/>
   </cols>
   <sheetData>
@@ -840,5 +1189,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>